--- a/Data/source/Japanese/Water footprint (Japanese) - for Eriko FINAL.xlsx
+++ b/Data/source/Japanese/Water footprint (Japanese) - for Eriko FINAL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="546">
   <si>
     <t>Product</t>
   </si>
@@ -448,13 +448,16 @@
     <t>ココア豆</t>
   </si>
   <si>
-    <t>Coconut</t>
-  </si>
-  <si>
-    <t>ココナッツ</t>
-  </si>
-  <si>
-    <t>Coconuts</t>
+    <t>Coconut, with husk</t>
+  </si>
+  <si>
+    <t>ココナッツ、皮あり</t>
+  </si>
+  <si>
+    <t>Coconuts, dehusked</t>
+  </si>
+  <si>
+    <t>ココナッツ、皮なし</t>
   </si>
   <si>
     <t>Coconut oil</t>
@@ -1532,15 +1535,6 @@
   </si>
   <si>
     <t>ヤギの肉</t>
-  </si>
-  <si>
-    <t>Pepper</t>
-  </si>
-  <si>
-    <t>胡椒</t>
-  </si>
-  <si>
-    <t>こしょう</t>
   </si>
   <si>
     <t>Brussels sprouts</t>
@@ -4287,7 +4281,7 @@
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="8">
@@ -4321,13 +4315,13 @@
         <v>55.0</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="8">
@@ -4361,13 +4355,13 @@
         <v>54.0</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="8">
@@ -4401,11 +4395,11 @@
         <v>64.0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="8">
@@ -4439,11 +4433,11 @@
         <v>59.0</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="8">
@@ -4477,14 +4471,14 @@
         <v>188.0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F71" s="8">
         <v>21793.0</v>
@@ -4517,11 +4511,11 @@
         <v>189.0</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="8">
@@ -4555,11 +4549,11 @@
         <v>60.0</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="8">
@@ -4593,11 +4587,11 @@
         <v>61.0</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="8">
@@ -4631,11 +4625,11 @@
         <v>191.0</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="8">
@@ -4669,11 +4663,11 @@
         <v>190.0</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="8">
@@ -4707,14 +4701,14 @@
         <v>67.0</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F77" s="8">
         <v>6906.0</v>
@@ -4747,14 +4741,14 @@
         <v>210.0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F78" s="10">
         <v>383.0</v>
@@ -4787,14 +4781,14 @@
         <v>207.0</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F79" s="8">
         <v>210.0</v>
@@ -4827,11 +4821,11 @@
         <v>29.0</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="8">
@@ -4865,14 +4859,14 @@
         <v>206.0</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F81" s="8">
         <v>132.0</v>
@@ -4905,14 +4899,14 @@
         <v>205.0</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F82" s="8">
         <v>547.0</v>
@@ -4945,14 +4939,14 @@
         <v>194.0</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F83" s="8">
         <v>1411.0</v>
@@ -4985,13 +4979,13 @@
         <v>46.0</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="8">
@@ -5025,11 +5019,11 @@
         <v>170.0</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="8">
@@ -5063,11 +5057,11 @@
         <v>213.0</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="8">
@@ -5101,11 +5095,11 @@
         <v>169.0</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="8">
@@ -5139,11 +5133,11 @@
         <v>168.0</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="8">
@@ -5177,14 +5171,14 @@
         <v>104.0</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F89" s="8">
         <v>2605.0</v>
@@ -5217,14 +5211,14 @@
         <v>84.0</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F90" s="8">
         <v>1657.0</v>
@@ -5257,14 +5251,14 @@
         <v>227.0</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F91" s="8">
         <v>235.0</v>
@@ -5297,11 +5291,11 @@
         <v>203.0</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="8">
@@ -5335,14 +5329,14 @@
         <v>26.0</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F93" s="8">
         <v>3142.0</v>
@@ -5375,13 +5369,13 @@
         <v>23.0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="8">
@@ -5415,11 +5409,11 @@
         <v>193.0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="8">
@@ -5453,14 +5447,14 @@
         <v>215.0</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F96" s="8">
         <v>2925.0</v>
@@ -5493,14 +5487,14 @@
         <v>74.0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F97" s="8">
         <v>3265.0</v>
@@ -5533,11 +5527,11 @@
         <v>144.0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="8">
@@ -5571,13 +5565,13 @@
         <v>145.0</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="8">
@@ -5611,13 +5605,13 @@
         <v>214.0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="8">
@@ -5651,11 +5645,11 @@
         <v>38.0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="8">
@@ -5689,14 +5683,14 @@
         <v>39.0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F102" s="8">
         <v>1604.0</v>
@@ -5729,14 +5723,14 @@
         <v>45.0</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F103" s="8">
         <v>17196.0</v>
@@ -5769,13 +5763,13 @@
         <v>114.0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="8">
@@ -5809,13 +5803,13 @@
         <v>119.0</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="8">
@@ -5849,13 +5843,13 @@
         <v>116.0</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="8">
@@ -5889,13 +5883,13 @@
         <v>117.0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="8">
@@ -5929,13 +5923,13 @@
         <v>118.0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="8">
@@ -5969,13 +5963,13 @@
         <v>115.0</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="8">
@@ -6009,11 +6003,11 @@
         <v>222.0</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="8">
@@ -6047,11 +6041,11 @@
         <v>221.0</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="8">
@@ -6085,11 +6079,11 @@
         <v>156.0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="8">
@@ -6123,11 +6117,11 @@
         <v>218.0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="8">
@@ -6161,11 +6155,11 @@
         <v>216.0</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="8">
@@ -6199,11 +6193,11 @@
         <v>217.0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="8">
@@ -6237,11 +6231,11 @@
         <v>220.0</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="8">
@@ -6275,11 +6269,11 @@
         <v>219.0</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="8">
@@ -6313,14 +6307,14 @@
         <v>75.0</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F118" s="8">
         <v>362.0</v>
@@ -6353,14 +6347,14 @@
         <v>71.0</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F119" s="8">
         <v>2277.0</v>
@@ -6393,13 +6387,13 @@
         <v>135.0</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="8">
@@ -6433,14 +6427,14 @@
         <v>32.0</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F121" s="8">
         <v>195.0</v>
@@ -6473,11 +6467,11 @@
         <v>134.0</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="8">
@@ -6511,11 +6505,11 @@
         <v>142.0</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="8">
@@ -6549,14 +6543,14 @@
         <v>150.0</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F124" s="8">
         <v>4971.0</v>
@@ -6589,11 +6583,11 @@
         <v>149.0</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="8">
@@ -6627,11 +6621,11 @@
         <v>148.0</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="8">
@@ -6665,11 +6659,11 @@
         <v>161.0</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="8">
@@ -6703,11 +6697,11 @@
         <v>160.0</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="8">
@@ -6741,11 +6735,11 @@
         <v>73.0</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="8">
@@ -6779,11 +6773,11 @@
         <v>27.0</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="8">
@@ -6817,11 +6811,11 @@
         <v>14.0</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="8">
@@ -6855,11 +6849,11 @@
         <v>15.0</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="8">
@@ -6893,11 +6887,11 @@
         <v>224.0</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="8">
@@ -6931,11 +6925,11 @@
         <v>151.0</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="8">
@@ -6969,11 +6963,11 @@
         <v>162.0</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="8">
@@ -7007,11 +7001,11 @@
         <v>35.0</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="8">
@@ -7045,11 +7039,11 @@
         <v>36.0</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="8">
@@ -7083,14 +7077,14 @@
         <v>209.0</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F138" s="8">
         <v>3366.0</v>
@@ -7123,14 +7117,14 @@
         <v>208.0</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F139" s="8">
         <v>6792.0</v>
@@ -7163,14 +7157,14 @@
         <v>87.0</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F140" s="8">
         <v>336.0</v>
@@ -7203,11 +7197,11 @@
         <v>41.0</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="8">
@@ -7241,11 +7235,11 @@
         <v>10.0</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="8">
@@ -7279,11 +7273,11 @@
         <v>76.0</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="8">
@@ -7317,14 +7311,14 @@
         <v>91.0</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F144" s="8">
         <v>608.0</v>
@@ -7357,11 +7351,11 @@
         <v>92.0</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="8">
@@ -7395,16 +7389,16 @@
         <v>88.0</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F146" s="8">
         <v>869.0</v>
@@ -7437,14 +7431,14 @@
         <v>164.0</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F147" s="8">
         <v>2180.0</v>
@@ -7477,11 +7471,11 @@
         <v>22.0</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="8">
@@ -7515,11 +7509,11 @@
         <v>24.0</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="8">
@@ -7553,11 +7547,11 @@
         <v>99.0</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="8">
@@ -7591,11 +7585,11 @@
         <v>98.0</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="8">
@@ -7629,14 +7623,14 @@
         <v>186.0</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F152" s="8">
         <v>7221.0</v>
@@ -7669,11 +7663,11 @@
         <v>158.0</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="8">
@@ -7707,11 +7701,11 @@
         <v>202.0</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="8">
@@ -7745,11 +7739,11 @@
         <v>102.0</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="8">
@@ -7783,11 +7777,11 @@
         <v>103.0</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="8">
@@ -7821,11 +7815,11 @@
         <v>167.0</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="8">
@@ -7859,11 +7853,11 @@
         <v>165.0</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="8">
@@ -7897,13 +7891,13 @@
         <v>125.0</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="8">
@@ -7937,11 +7931,11 @@
         <v>123.0</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="8">
@@ -7975,11 +7969,11 @@
         <v>124.0</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="8">
@@ -8013,14 +8007,14 @@
         <v>122.0</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F162" s="8">
         <v>748.0</v>
@@ -8053,14 +8047,14 @@
         <v>211.0</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F163" s="8">
         <v>748.0</v>
@@ -8093,11 +8087,11 @@
         <v>128.0</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="8">
@@ -8131,11 +8125,11 @@
         <v>234.0</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="8">
@@ -8169,11 +8163,11 @@
         <v>184.0</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="8">
@@ -8207,11 +8201,11 @@
         <v>185.0</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="8">
@@ -8245,11 +8239,11 @@
         <v>175.0</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="8">
@@ -8283,14 +8277,14 @@
         <v>172.0</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F169" s="8">
         <v>4507.0</v>
@@ -8323,11 +8317,11 @@
         <v>2.0</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="8">
@@ -8361,11 +8355,11 @@
         <v>7.0</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="8">
@@ -8399,11 +8393,11 @@
         <v>8.0</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="8">
@@ -8437,11 +8431,11 @@
         <v>192.0</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="8">
@@ -8475,11 +8469,11 @@
         <v>111.0</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="8">
@@ -8513,11 +8507,11 @@
         <v>109.0</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="8">
@@ -8551,14 +8545,14 @@
         <v>110.0</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F176" s="8">
         <v>5874.0</v>
@@ -8591,11 +8585,11 @@
         <v>78.0</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="8">
@@ -8629,11 +8623,11 @@
         <v>112.0</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="8">
@@ -8667,11 +8661,11 @@
         <v>113.0</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="8">
@@ -8705,11 +8699,11 @@
         <v>176.0</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C180" s="6"/>
       <c r="D180" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="8">
@@ -8743,11 +8737,11 @@
         <v>177.0</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="8">
@@ -8781,11 +8775,11 @@
         <v>43.0</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="8">
@@ -8819,11 +8813,11 @@
         <v>44.0</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="8">
@@ -8857,11 +8851,11 @@
         <v>197.0</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="8">
@@ -8895,11 +8889,11 @@
         <v>198.0</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="8">
@@ -8933,11 +8927,11 @@
         <v>199.0</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="8">
@@ -8971,11 +8965,11 @@
         <v>201.0</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C187" s="6"/>
       <c r="D187" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="8">
@@ -9009,11 +9003,11 @@
         <v>196.0</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="8">
@@ -9047,11 +9041,11 @@
         <v>16.0</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="8">
@@ -9085,11 +9079,11 @@
         <v>17.0</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="8">
@@ -9123,11 +9117,11 @@
         <v>133.0</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" s="8">
@@ -9161,16 +9155,16 @@
         <v>107.0</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F192" s="8">
         <v>10412.0</v>
@@ -9203,14 +9197,14 @@
         <v>187.0</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F193" s="8">
         <v>4029.0</v>
@@ -9243,11 +9237,11 @@
         <v>228.0</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E194" s="1"/>
       <c r="F194" s="8">
@@ -9281,14 +9275,14 @@
         <v>231.0</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F195" s="8">
         <v>4189.0</v>
@@ -9321,11 +9315,11 @@
         <v>232.0</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="8">
@@ -9359,11 +9353,11 @@
         <v>229.0</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="8">
@@ -9397,11 +9391,11 @@
         <v>233.0</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E198" s="1"/>
       <c r="F198" s="8">
@@ -9435,11 +9429,11 @@
         <v>230.0</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="8">
@@ -9473,11 +9467,11 @@
         <v>70.0</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="8">
@@ -9511,14 +9505,14 @@
         <v>80.0</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C201" s="6"/>
       <c r="D201" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F201" s="8">
         <v>1782.0</v>
@@ -9551,14 +9545,14 @@
         <v>40.0</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F202" s="8">
         <v>2750.0</v>
@@ -9591,14 +9585,14 @@
         <v>152.0</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F203" s="8">
         <v>910.0</v>
@@ -9631,14 +9625,14 @@
         <v>153.0</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F204" s="8">
         <v>922.0</v>
@@ -9671,11 +9665,11 @@
         <v>183.0</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="8">
@@ -9709,14 +9703,14 @@
         <v>129.0</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C206" s="6"/>
       <c r="D206" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F206" s="8">
         <v>1020.0</v>
@@ -9749,14 +9743,14 @@
         <v>130.0</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C207" s="6"/>
       <c r="D207" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F207" s="8">
         <v>4745.0</v>
@@ -9789,16 +9783,16 @@
         <v>20.0</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F208" s="8">
         <v>15415.0</v>
@@ -9831,11 +9825,11 @@
         <v>108.0</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E209" s="1"/>
       <c r="F209" s="8">
@@ -9869,13 +9863,13 @@
         <v>182.0</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E210" s="1"/>
       <c r="F210" s="8">
@@ -9909,11 +9903,11 @@
         <v>181.0</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E211" s="1"/>
       <c r="F211" s="8">
@@ -9947,11 +9941,11 @@
         <v>179.0</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C212" s="6"/>
       <c r="D212" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E212" s="1"/>
       <c r="F212" s="8">
@@ -9985,11 +9979,11 @@
         <v>178.0</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E213" s="1"/>
       <c r="F213" s="8">
@@ -10023,11 +10017,11 @@
         <v>63.0</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C214" s="6"/>
       <c r="D214" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E214" s="1"/>
       <c r="F214" s="8">
@@ -10061,11 +10055,11 @@
         <v>65.0</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E215" s="1"/>
       <c r="F215" s="8">
@@ -10099,11 +10093,11 @@
         <v>66.0</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C216" s="6"/>
       <c r="D216" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E216" s="1"/>
       <c r="F216" s="8">
@@ -10137,14 +10131,14 @@
         <v>62.0</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F217" s="8">
         <v>9982.0</v>
@@ -10177,11 +10171,11 @@
         <v>93.0</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C218" s="6"/>
       <c r="D218" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E218" s="1"/>
       <c r="F218" s="8">
@@ -10215,16 +10209,16 @@
         <v>85.0</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F219" s="8">
         <v>5521.0</v>
@@ -10254,23 +10248,21 @@
     </row>
     <row r="220">
       <c r="A220" s="4">
-        <v>157.0</v>
+        <v>25.0</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="E220" s="7" t="s">
         <v>509</v>
       </c>
+      <c r="E220" s="1"/>
       <c r="F220" s="8">
-        <v>7611.0</v>
+        <v>285.0</v>
       </c>
       <c r="G220" s="9">
-        <v>218.0</v>
+        <v>219.0</v>
       </c>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
@@ -10294,7 +10286,7 @@
     </row>
     <row r="221">
       <c r="A221" s="4">
-        <v>25.0</v>
+        <v>174.0</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>510</v>
@@ -10305,10 +10297,10 @@
       </c>
       <c r="E221" s="1"/>
       <c r="F221" s="8">
-        <v>285.0</v>
+        <v>2271.0</v>
       </c>
       <c r="G221" s="9">
-        <v>219.0</v>
+        <v>220.0</v>
       </c>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
@@ -10332,7 +10324,7 @@
     </row>
     <row r="222">
       <c r="A222" s="4">
-        <v>174.0</v>
+        <v>173.0</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>512</v>
@@ -10341,12 +10333,14 @@
       <c r="D222" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="E222" s="1"/>
+      <c r="E222" s="7" t="s">
+        <v>514</v>
+      </c>
       <c r="F222" s="8">
-        <v>2271.0</v>
+        <v>4301.0</v>
       </c>
       <c r="G222" s="9">
-        <v>220.0</v>
+        <v>221.0</v>
       </c>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
@@ -10370,23 +10364,23 @@
     </row>
     <row r="223">
       <c r="A223" s="4">
-        <v>173.0</v>
+        <v>96.0</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F223" s="8">
-        <v>4301.0</v>
+        <v>3974.0</v>
       </c>
       <c r="G223" s="9">
-        <v>221.0</v>
+        <v>222.0</v>
       </c>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
@@ -10410,23 +10404,23 @@
     </row>
     <row r="224">
       <c r="A224" s="4">
-        <v>96.0</v>
+        <v>95.0</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F224" s="8">
-        <v>3974.0</v>
+        <v>2782.0</v>
       </c>
       <c r="G224" s="9">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
@@ -10450,23 +10444,21 @@
     </row>
     <row r="225">
       <c r="A225" s="4">
-        <v>95.0</v>
+        <v>94.0</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="E225" s="7" t="s">
         <v>522</v>
       </c>
+      <c r="E225" s="1"/>
       <c r="F225" s="8">
-        <v>2782.0</v>
+        <v>7529.0</v>
       </c>
       <c r="G225" s="9">
-        <v>223.0</v>
+        <v>224.0</v>
       </c>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
@@ -10490,7 +10482,7 @@
     </row>
     <row r="226">
       <c r="A226" s="4">
-        <v>94.0</v>
+        <v>18.0</v>
       </c>
       <c r="B226" s="5" t="s">
         <v>523</v>
@@ -10501,10 +10493,10 @@
       </c>
       <c r="E226" s="1"/>
       <c r="F226" s="8">
-        <v>7529.0</v>
+        <v>5053.0</v>
       </c>
       <c r="G226" s="9">
-        <v>224.0</v>
+        <v>225.0</v>
       </c>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
@@ -10528,7 +10520,7 @@
     </row>
     <row r="227">
       <c r="A227" s="4">
-        <v>18.0</v>
+        <v>195.0</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>525</v>
@@ -10539,10 +10531,10 @@
       </c>
       <c r="E227" s="1"/>
       <c r="F227" s="8">
-        <v>5053.0</v>
+        <v>3763.0</v>
       </c>
       <c r="G227" s="9">
-        <v>225.0</v>
+        <v>226.0</v>
       </c>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
@@ -10566,21 +10558,25 @@
     </row>
     <row r="228">
       <c r="A228" s="4">
-        <v>195.0</v>
+        <v>166.0</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C228" s="6"/>
+      <c r="C228" s="5" t="s">
+        <v>528</v>
+      </c>
       <c r="D228" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="E228" s="1"/>
+        <v>529</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>530</v>
+      </c>
       <c r="F228" s="8">
-        <v>3763.0</v>
+        <v>5988.0</v>
       </c>
       <c r="G228" s="9">
-        <v>226.0</v>
+        <v>227.0</v>
       </c>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
@@ -10604,25 +10600,21 @@
     </row>
     <row r="229">
       <c r="A229" s="4">
-        <v>166.0</v>
+        <v>200.0</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>530</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="C229" s="6"/>
       <c r="D229" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="E229" s="7" t="s">
         <v>532</v>
       </c>
+      <c r="E229" s="1"/>
       <c r="F229" s="8">
-        <v>5988.0</v>
+        <v>613.0</v>
       </c>
       <c r="G229" s="9">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
@@ -10646,7 +10638,7 @@
     </row>
     <row r="230">
       <c r="A230" s="4">
-        <v>200.0</v>
+        <v>42.0</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>533</v>
@@ -10655,12 +10647,14 @@
       <c r="D230" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="E230" s="1"/>
+      <c r="E230" s="7" t="s">
+        <v>535</v>
+      </c>
       <c r="F230" s="8">
-        <v>613.0</v>
+        <v>4325.0</v>
       </c>
       <c r="G230" s="9">
-        <v>228.0</v>
+        <v>229.0</v>
       </c>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
@@ -10684,23 +10678,21 @@
     </row>
     <row r="231">
       <c r="A231" s="4">
-        <v>42.0</v>
+        <v>120.0</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C231" s="6"/>
       <c r="D231" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E231" s="7" t="s">
         <v>537</v>
       </c>
+      <c r="E231" s="1"/>
       <c r="F231" s="8">
-        <v>4325.0</v>
+        <v>1950.0</v>
       </c>
       <c r="G231" s="9">
-        <v>229.0</v>
+        <v>230.0</v>
       </c>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
@@ -10724,7 +10716,7 @@
     </row>
     <row r="232">
       <c r="A232" s="4">
-        <v>120.0</v>
+        <v>121.0</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>538</v>
@@ -10735,10 +10727,10 @@
       </c>
       <c r="E232" s="1"/>
       <c r="F232" s="8">
-        <v>1950.0</v>
+        <v>2437.0</v>
       </c>
       <c r="G232" s="9">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
@@ -10762,7 +10754,7 @@
     </row>
     <row r="233">
       <c r="A233" s="4">
-        <v>121.0</v>
+        <v>21.0</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>540</v>
@@ -10773,10 +10765,10 @@
       </c>
       <c r="E233" s="1"/>
       <c r="F233" s="8">
-        <v>2437.0</v>
+        <v>298.0</v>
       </c>
       <c r="G233" s="9">
-        <v>231.0</v>
+        <v>232.0</v>
       </c>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
@@ -10800,7 +10792,7 @@
     </row>
     <row r="234">
       <c r="A234" s="4">
-        <v>21.0</v>
+        <v>101.0</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>542</v>
@@ -10811,10 +10803,10 @@
       </c>
       <c r="E234" s="1"/>
       <c r="F234" s="8">
-        <v>298.0</v>
+        <v>3685.0</v>
       </c>
       <c r="G234" s="9">
-        <v>232.0</v>
+        <v>233.0</v>
       </c>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
@@ -10838,7 +10830,7 @@
     </row>
     <row r="235">
       <c r="A235" s="4">
-        <v>101.0</v>
+        <v>100.0</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>544</v>
@@ -10849,10 +10841,10 @@
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="8">
-        <v>3685.0</v>
+        <v>2447.0</v>
       </c>
       <c r="G235" s="9">
-        <v>233.0</v>
+        <v>234.0</v>
       </c>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
@@ -10875,23 +10867,13 @@
       <c r="Z235" s="3"/>
     </row>
     <row r="236">
-      <c r="A236" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="C236" s="6"/>
-      <c r="D236" s="7" t="s">
-        <v>547</v>
-      </c>
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
       <c r="E236" s="1"/>
-      <c r="F236" s="8">
-        <v>2447.0</v>
-      </c>
-      <c r="G236" s="9">
-        <v>234.0</v>
-      </c>
+      <c r="F236" s="1"/>
+      <c r="G236" s="3"/>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
@@ -32249,12 +32231,12 @@
       <c r="Z998" s="3"/>
     </row>
     <row r="999">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
-      <c r="E999" s="1"/>
-      <c r="F999" s="1"/>
+      <c r="A999" s="3"/>
+      <c r="B999" s="3"/>
+      <c r="C999" s="3"/>
+      <c r="D999" s="3"/>
+      <c r="E999" s="3"/>
+      <c r="F999" s="3"/>
       <c r="G999" s="3"/>
       <c r="H999" s="3"/>
       <c r="I999" s="3"/>
@@ -32276,34 +32258,6 @@
       <c r="Y999" s="3"/>
       <c r="Z999" s="3"/>
     </row>
-    <row r="1000">
-      <c r="A1000" s="3"/>
-      <c r="B1000" s="3"/>
-      <c r="C1000" s="3"/>
-      <c r="D1000" s="3"/>
-      <c r="E1000" s="3"/>
-      <c r="F1000" s="3"/>
-      <c r="G1000" s="3"/>
-      <c r="H1000" s="3"/>
-      <c r="I1000" s="3"/>
-      <c r="J1000" s="3"/>
-      <c r="K1000" s="3"/>
-      <c r="L1000" s="3"/>
-      <c r="M1000" s="3"/>
-      <c r="N1000" s="3"/>
-      <c r="O1000" s="3"/>
-      <c r="P1000" s="3"/>
-      <c r="Q1000" s="3"/>
-      <c r="R1000" s="3"/>
-      <c r="S1000" s="3"/>
-      <c r="T1000" s="3"/>
-      <c r="U1000" s="3"/>
-      <c r="V1000" s="3"/>
-      <c r="W1000" s="3"/>
-      <c r="X1000" s="3"/>
-      <c r="Y1000" s="3"/>
-      <c r="Z1000" s="3"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
